--- a/Hiroshima/まとめ/コーディングルール（高松）.xlsx
+++ b/Hiroshima/まとめ/コーディングルール（高松）.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\OC\Desktop\レベルアップキャンプ2018\GameProject\Hiroshima\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\OC\Desktop\20180301~0325\GameProject\Hiroshima\まとめ\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
   <si>
     <t>ソースファイル（ｃｐｐ）</t>
     <phoneticPr fontId="1"/>
@@ -203,13 +203,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>例：　GetPos　</t>
-    <rPh sb="0" eb="1">
-      <t>レイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>関数の上にコメントで機能を説明する。</t>
     <rPh sb="0" eb="2">
       <t>カンスウ</t>
@@ -226,25 +219,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>tabキーで間を開けた後コメントで機能を説明する。</t>
-    <rPh sb="6" eb="7">
-      <t>アイダ</t>
-    </rPh>
-    <rPh sb="8" eb="9">
-      <t>ア</t>
-    </rPh>
-    <rPh sb="11" eb="12">
-      <t>アト</t>
-    </rPh>
-    <rPh sb="17" eb="19">
-      <t>キノウ</t>
-    </rPh>
-    <rPh sb="20" eb="22">
-      <t>セツメイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>アニメーション関係</t>
     <rPh sb="7" eb="9">
       <t>カンケイ</t>
@@ -265,13 +239,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>例：　player_AnimData</t>
-    <rPh sb="0" eb="1">
-      <t>レイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>ANIMDATA</t>
   </si>
   <si>
@@ -300,13 +267,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>例：_PL_idol</t>
-    <rPh sb="0" eb="1">
-      <t>レイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>コーディングルール一覧（高松）</t>
     <rPh sb="9" eb="11">
       <t>イチラン</t>
@@ -315,13 +275,29 @@
       <t>タカマツ</t>
     </rPh>
     <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>上三つ共通</t>
+    <rPh sb="0" eb="1">
+      <t>ウエ</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>ミッ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>キョウツウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>tabキーで間を開けた後コメントで機能を説明する。</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -334,6 +310,31 @@
       <sz val="6"/>
       <name val="ＭＳ Ｐゴシック"/>
       <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="20"/>
+      <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="20"/>
+      <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
@@ -352,7 +353,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -361,16 +362,159 @@
       <diagonal/>
     </border>
     <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="hair">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="hair">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="hair">
+        <color indexed="64"/>
+      </top>
+      <bottom style="hair">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="hair">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="hair">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="thin">
+      <right style="medium">
         <color indexed="64"/>
       </right>
-      <top style="thin">
+      <top/>
+      <bottom style="hair">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="hair">
         <color indexed="64"/>
       </top>
-      <bottom style="thin">
+      <bottom style="hair">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="hair">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="hair">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -381,30 +525,51 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -686,190 +851,168 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D18"/>
+  <dimension ref="A1:B22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="18.875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.875" style="12" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="74.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="69.75" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="41.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="9" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A1" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A2" s="5"/>
-      <c r="B2" s="5" t="s">
+    <row r="1" spans="1:2" ht="24.75" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="B1" s="6"/>
+    </row>
+    <row r="2" spans="1:2" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="5"/>
-      <c r="D2" s="5"/>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A3" s="2" t="s">
+      <c r="B2" s="14"/>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A3" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="2" t="s">
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A4" s="8"/>
+      <c r="B4" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="2" t="s">
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A5" s="8"/>
+      <c r="B5" s="2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A4" s="2" t="s">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A6" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B6" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="2" t="s">
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A7" s="8"/>
+      <c r="B7" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="2"/>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A5" s="2"/>
-      <c r="B5" s="2" t="s">
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A8" s="8"/>
+      <c r="B8" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="2"/>
-      <c r="D5" s="2"/>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A6" s="2"/>
-      <c r="B6" s="2"/>
-      <c r="C6" s="2"/>
-      <c r="D6" s="2"/>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A7" s="5"/>
-      <c r="B7" s="5" t="s">
+    </row>
+    <row r="9" spans="1:2" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="9"/>
+      <c r="B9" s="3"/>
+    </row>
+    <row r="10" spans="1:2" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="5"/>
-      <c r="D7" s="5"/>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A8" s="2" t="s">
+      <c r="B10" s="14"/>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A11" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="B11" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C8" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="D8" s="2"/>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A9" s="2" t="s">
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A12" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="B9" s="2" t="s">
+      <c r="B12" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C9" s="3"/>
-      <c r="D9" s="2"/>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A10" s="2" t="s">
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A13" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="B10" s="2" t="s">
+      <c r="B13" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C10" s="3"/>
-      <c r="D10" s="2"/>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A11" s="2"/>
-      <c r="B11" s="2"/>
-      <c r="C11" s="4"/>
-      <c r="D11" s="2"/>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A12" s="5"/>
-      <c r="B12" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="C12" s="6"/>
-      <c r="D12" s="5"/>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A13" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="C13" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="D13" s="2"/>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A14" s="2" t="s">
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A14" s="8" t="s">
         <v>25</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="C14" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="D14" s="2"/>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A15" s="2"/>
-      <c r="B15" s="2"/>
-      <c r="C15" s="4"/>
-      <c r="D15" s="2"/>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A16" s="5"/>
-      <c r="B16" s="5" t="s">
+    </row>
+    <row r="15" spans="1:2" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="9"/>
+      <c r="B15" s="3"/>
+    </row>
+    <row r="16" spans="1:2" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="B16" s="14"/>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A17" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A18" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="9"/>
+      <c r="B19" s="3"/>
+    </row>
+    <row r="20" spans="1:2" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="C16" s="5"/>
-      <c r="D16" s="5"/>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A17" s="7"/>
-      <c r="B17" s="2" t="s">
+      <c r="B20" s="14"/>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A21" s="10"/>
+      <c r="B21" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C17" s="2" t="s">
+    </row>
+    <row r="22" spans="1:2" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="11"/>
+      <c r="B22" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="D17" s="2"/>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A18" s="7"/>
-      <c r="B18" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="C18" s="2"/>
-      <c r="D18" s="2"/>
     </row>
   </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="C8:C10"/>
-    <mergeCell ref="A1:D1"/>
+  <mergeCells count="5">
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="A10:B10"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Hiroshima/まとめ/コーディングルール（高松）.xlsx
+++ b/Hiroshima/まとめ/コーディングルール（高松）.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
   <si>
     <t>ソースファイル（ｃｐｐ）</t>
     <phoneticPr fontId="1"/>
@@ -291,13 +291,97 @@
   </si>
   <si>
     <t>tabキーで間を開けた後コメントで機能を説明する。</t>
+  </si>
+  <si>
+    <t>コメントの書き方</t>
+    <rPh sb="5" eb="6">
+      <t>カ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>カタ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ヘッダ・ソース共通</t>
+    <rPh sb="7" eb="9">
+      <t>キョウツウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>インクルード系後に以下のように記入する</t>
+    <rPh sb="6" eb="7">
+      <t>ケイ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>ゴ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>イカ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>キニュウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>/*
+製作者　名字
+*/</t>
+    <rPh sb="8" eb="10">
+      <t>ミョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>追加編集時</t>
+    <rPh sb="0" eb="2">
+      <t>ツイカ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ヘンシュウ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>制作者以外が編集したときは以下のように記入する</t>
+    <rPh sb="0" eb="2">
+      <t>セイサク</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>シャ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>イガイ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ヘンシュウ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>イカ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>キニュウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>//ここから編集　名字
+編集した内容　//使い方
+（編集で作成した変数などは、使用先でコメント書かなくてもいい）
+//ここまで</t>
+    <phoneticPr fontId="1"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -338,6 +422,14 @@
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -353,7 +445,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="13">
+  <borders count="14">
     <border>
       <left/>
       <right/>
@@ -519,13 +611,28 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="hair">
+        <color indexed="64"/>
+      </top>
+      <bottom style="hair">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -539,6 +646,24 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -547,29 +672,26 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -851,24 +973,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B22"/>
+  <dimension ref="A1:B27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="B32" sqref="B32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="18.875" style="12" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.875" style="10" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="74.5" bestFit="1" customWidth="1"/>
     <col min="3" max="4" width="9" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="24.75" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="B1" s="6"/>
+      <c r="B1" s="12"/>
     </row>
     <row r="2" spans="1:2" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A2" s="13" t="s">
@@ -877,7 +999,7 @@
       <c r="B2" s="14"/>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A3" s="7" t="s">
+      <c r="A3" s="5" t="s">
         <v>0</v>
       </c>
       <c r="B3" s="1" t="s">
@@ -885,19 +1007,19 @@
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A4" s="8"/>
+      <c r="A4" s="6"/>
       <c r="B4" s="2" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A5" s="8"/>
+      <c r="A5" s="6"/>
       <c r="B5" s="2" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A6" s="8" t="s">
+      <c r="A6" s="6" t="s">
         <v>1</v>
       </c>
       <c r="B6" s="2" t="s">
@@ -905,19 +1027,19 @@
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A7" s="8"/>
+      <c r="A7" s="6"/>
       <c r="B7" s="2" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A8" s="8"/>
+      <c r="A8" s="6"/>
       <c r="B8" s="2" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="9"/>
+      <c r="A9" s="7"/>
       <c r="B9" s="3"/>
     </row>
     <row r="10" spans="1:2" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
@@ -927,7 +1049,7 @@
       <c r="B10" s="14"/>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A11" s="7" t="s">
+      <c r="A11" s="5" t="s">
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
@@ -935,7 +1057,7 @@
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A12" s="8" t="s">
+      <c r="A12" s="6" t="s">
         <v>11</v>
       </c>
       <c r="B12" s="2" t="s">
@@ -943,7 +1065,7 @@
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A13" s="8" t="s">
+      <c r="A13" s="6" t="s">
         <v>12</v>
       </c>
       <c r="B13" s="2" t="s">
@@ -951,7 +1073,7 @@
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A14" s="8" t="s">
+      <c r="A14" s="6" t="s">
         <v>25</v>
       </c>
       <c r="B14" s="2" t="s">
@@ -959,7 +1081,7 @@
       </c>
     </row>
     <row r="15" spans="1:2" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="9"/>
+      <c r="A15" s="7"/>
       <c r="B15" s="3"/>
     </row>
     <row r="16" spans="1:2" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
@@ -969,7 +1091,7 @@
       <c r="B16" s="14"/>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A17" s="7" t="s">
+      <c r="A17" s="5" t="s">
         <v>20</v>
       </c>
       <c r="B17" s="1" t="s">
@@ -977,7 +1099,7 @@
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A18" s="8" t="s">
+      <c r="A18" s="6" t="s">
         <v>22</v>
       </c>
       <c r="B18" s="2" t="s">
@@ -985,7 +1107,7 @@
       </c>
     </row>
     <row r="19" spans="1:2" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="9"/>
+      <c r="A19" s="7"/>
       <c r="B19" s="3"/>
     </row>
     <row r="20" spans="1:2" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
@@ -995,19 +1117,54 @@
       <c r="B20" s="14"/>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A21" s="10"/>
+      <c r="A21" s="8"/>
       <c r="B21" s="1" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="22" spans="1:2" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="11"/>
+      <c r="A22" s="9"/>
       <c r="B22" s="4" t="s">
         <v>18</v>
       </c>
     </row>
+    <row r="23" spans="1:2" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="B23" s="14"/>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A24" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" ht="77.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A25" s="6"/>
+      <c r="B25" s="15" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A26" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="B26" s="19" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" ht="91.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="17"/>
+      <c r="B27" s="18" t="s">
+        <v>33</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="5">
+  <mergeCells count="6">
+    <mergeCell ref="A23:B23"/>
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="A2:B2"/>
     <mergeCell ref="A20:B20"/>

--- a/Hiroshima/まとめ/コーディングルール（高松）.xlsx
+++ b/Hiroshima/まとめ/コーディングルール（高松）.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="38">
   <si>
     <t>ソースファイル（ｃｐｐ）</t>
     <phoneticPr fontId="1"/>
@@ -374,6 +374,31 @@
 編集した内容　//使い方
 （編集で作成した変数などは、使用先でコメント書かなくてもいい）
 //ここまで</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>フラグ系</t>
+    <rPh sb="3" eb="4">
+      <t>ケイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>それぞれの変数ルール_flag</t>
+    <rPh sb="5" eb="7">
+      <t>ヘンスウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ポインタ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>(メンバなら'm')p_変数名</t>
+    <rPh sb="12" eb="15">
+      <t>ヘンスウメイ</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -666,32 +691,32 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -973,10 +998,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B27"/>
+  <dimension ref="A1:B29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B32" sqref="B32"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -987,16 +1012,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="24.75" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="B1" s="12"/>
+      <c r="B1" s="19"/>
     </row>
     <row r="2" spans="1:2" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="13" t="s">
+      <c r="A2" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="14"/>
+      <c r="B2" s="17"/>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A3" s="5" t="s">
@@ -1043,10 +1068,10 @@
       <c r="B9" s="3"/>
     </row>
     <row r="10" spans="1:2" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="13" t="s">
+      <c r="A10" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="B10" s="14"/>
+      <c r="B10" s="17"/>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A11" s="5" t="s">
@@ -1080,95 +1105,111 @@
         <v>26</v>
       </c>
     </row>
-    <row r="15" spans="1:2" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="7"/>
-      <c r="B15" s="3"/>
-    </row>
-    <row r="16" spans="1:2" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="13" t="s">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A15" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A16" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="7"/>
+      <c r="B17" s="3"/>
+    </row>
+    <row r="18" spans="1:2" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="B16" s="14"/>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A17" s="5" t="s">
+      <c r="B18" s="17"/>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A19" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="B17" s="1" t="s">
+      <c r="B19" s="1" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A18" s="6" t="s">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A20" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="B18" s="2" t="s">
+      <c r="B20" s="2" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="19" spans="1:2" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="7"/>
-      <c r="B19" s="3"/>
-    </row>
-    <row r="20" spans="1:2" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="13" t="s">
+    <row r="21" spans="1:2" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="7"/>
+      <c r="B21" s="3"/>
+    </row>
+    <row r="22" spans="1:2" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="B20" s="14"/>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A21" s="8"/>
-      <c r="B21" s="1" t="s">
+      <c r="B22" s="17"/>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A23" s="8"/>
+      <c r="B23" s="1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="22" spans="1:2" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="9"/>
-      <c r="B22" s="4" t="s">
+    <row r="24" spans="1:2" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="9"/>
+      <c r="B24" s="4" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="23" spans="1:2" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="13" t="s">
+    <row r="25" spans="1:2" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="B23" s="14"/>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A24" s="8" t="s">
+      <c r="B25" s="17"/>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A26" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="B24" s="1" t="s">
+      <c r="B26" s="1" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="25" spans="1:2" ht="77.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A25" s="6"/>
-      <c r="B25" s="15" t="s">
+    <row r="27" spans="1:2" ht="77.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A27" s="6"/>
+      <c r="B27" s="11" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A26" s="16" t="s">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A28" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="B26" s="19" t="s">
+      <c r="B28" s="15" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="27" spans="1:2" ht="91.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="17"/>
-      <c r="B27" s="18" t="s">
+    <row r="29" spans="1:2" ht="91.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="13"/>
+      <c r="B29" s="14" t="s">
         <v>33</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="6">
-    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="A25:B25"/>
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="A2:B2"/>
-    <mergeCell ref="A20:B20"/>
-    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="A18:B18"/>
     <mergeCell ref="A10:B10"/>
   </mergeCells>
   <phoneticPr fontId="1"/>

--- a/Hiroshima/まとめ/コーディングルール（高松）.xlsx
+++ b/Hiroshima/まとめ/コーディングルール（高松）.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
   <si>
     <t>ソースファイル（ｃｐｐ）</t>
     <phoneticPr fontId="1"/>
@@ -374,31 +374,6 @@
 編集した内容　//使い方
 （編集で作成した変数などは、使用先でコメント書かなくてもいい）
 //ここまで</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>フラグ系</t>
-    <rPh sb="3" eb="4">
-      <t>ケイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>それぞれの変数ルール_flag</t>
-    <rPh sb="5" eb="7">
-      <t>ヘンスウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ポインタ</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>(メンバなら'm')p_変数名</t>
-    <rPh sb="12" eb="15">
-      <t>ヘンスウメイ</t>
-    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -691,6 +666,18 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -705,18 +692,6 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -998,10 +973,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B29"/>
+  <dimension ref="A1:B27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B32" sqref="B32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1012,16 +987,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="24.75" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="18" t="s">
+      <c r="A1" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="B1" s="19"/>
+      <c r="B1" s="12"/>
     </row>
     <row r="2" spans="1:2" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="16" t="s">
+      <c r="A2" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="17"/>
+      <c r="B2" s="14"/>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A3" s="5" t="s">
@@ -1068,10 +1043,10 @@
       <c r="B9" s="3"/>
     </row>
     <row r="10" spans="1:2" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="16" t="s">
+      <c r="A10" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="B10" s="17"/>
+      <c r="B10" s="14"/>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A11" s="5" t="s">
@@ -1105,111 +1080,95 @@
         <v>26</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A15" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="B15" s="3" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A16" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="B16" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="7"/>
-      <c r="B17" s="3"/>
-    </row>
-    <row r="18" spans="1:2" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="16" t="s">
+    <row r="15" spans="1:2" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="7"/>
+      <c r="B15" s="3"/>
+    </row>
+    <row r="16" spans="1:2" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="B18" s="17"/>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A19" s="5" t="s">
+      <c r="B16" s="14"/>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A17" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="B19" s="1" t="s">
+      <c r="B17" s="1" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A20" s="6" t="s">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A18" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="B20" s="2" t="s">
+      <c r="B18" s="2" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="21" spans="1:2" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="7"/>
-      <c r="B21" s="3"/>
+    <row r="19" spans="1:2" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="7"/>
+      <c r="B19" s="3"/>
+    </row>
+    <row r="20" spans="1:2" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="B20" s="14"/>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A21" s="8"/>
+      <c r="B21" s="1" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="22" spans="1:2" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="16" t="s">
-        <v>16</v>
-      </c>
-      <c r="B22" s="17"/>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A23" s="8"/>
-      <c r="B23" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="9"/>
-      <c r="B24" s="4" t="s">
+      <c r="A22" s="9"/>
+      <c r="B22" s="4" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="25" spans="1:2" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="16" t="s">
+    <row r="23" spans="1:2" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="B25" s="17"/>
+      <c r="B23" s="14"/>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A24" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" ht="77.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A25" s="6"/>
+      <c r="B25" s="15" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A26" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="B26" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" ht="77.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A27" s="6"/>
-      <c r="B27" s="11" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A28" s="12" t="s">
+      <c r="A26" s="16" t="s">
         <v>31</v>
       </c>
-      <c r="B28" s="15" t="s">
+      <c r="B26" s="19" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="29" spans="1:2" ht="91.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="13"/>
-      <c r="B29" s="14" t="s">
+    <row r="27" spans="1:2" ht="91.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="17"/>
+      <c r="B27" s="18" t="s">
         <v>33</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="6">
-    <mergeCell ref="A25:B25"/>
+    <mergeCell ref="A23:B23"/>
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="A2:B2"/>
-    <mergeCell ref="A22:B22"/>
-    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="A16:B16"/>
     <mergeCell ref="A10:B10"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
